--- a/total_res/Collector1_output.xlsx
+++ b/total_res/Collector1_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,6 +492,11 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>real_quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>percent</t>
         </is>
       </c>
@@ -538,10 +543,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -587,6 +601,9 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>-0.07498399999999998</v>
+      </c>
+      <c r="N3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -634,6 +651,9 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
+        <v>-0.03450979999999999</v>
+      </c>
+      <c r="N4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -681,6 +701,9 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>-1.75266</v>
+      </c>
+      <c r="N5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -728,6 +751,9 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>-0.132964</v>
+      </c>
+      <c r="N6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -775,6 +801,9 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>-0.05997419999999999</v>
+      </c>
+      <c r="N7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -822,6 +851,9 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>-0.268372</v>
+      </c>
+      <c r="N8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -869,6 +901,9 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>-0.00308672</v>
+      </c>
+      <c r="N9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -916,6 +951,9 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>-0.0334984</v>
+      </c>
+      <c r="N10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -963,6 +1001,9 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
+        <v>-0.0429052</v>
+      </c>
+      <c r="N11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1010,6 +1051,9 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
+        <v>-0.0131872</v>
+      </c>
+      <c r="N12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1057,6 +1101,9 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
+        <v>-0.367224</v>
+      </c>
+      <c r="N13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1104,6 +1151,9 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
+        <v>-0.015782</v>
+      </c>
+      <c r="N14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1151,6 +1201,9 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
+        <v>-0.0150696</v>
+      </c>
+      <c r="N15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1198,6 +1251,9 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
+        <v>-0.03741919999999999</v>
+      </c>
+      <c r="N16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1245,6 +1301,9 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
+        <v>-0.00542256</v>
+      </c>
+      <c r="N17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,6 +1351,9 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
+        <v>-0.176683</v>
+      </c>
+      <c r="N18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1339,6 +1401,9 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
+        <v>-2.58284e-05</v>
+      </c>
+      <c r="N19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1386,6 +1451,9 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
+        <v>-0.000156728</v>
+      </c>
+      <c r="N20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1433,6 +1501,9 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
+        <v>-0.7864219999999998</v>
+      </c>
+      <c r="N21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1480,6 +1551,9 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
+        <v>-0.008998599999999999</v>
+      </c>
+      <c r="N22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1525,10 +1599,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1582,6 +1665,9 @@
         <v>-0.1700000000000159</v>
       </c>
       <c r="M24" t="n">
+        <v>-0.2443795000000159</v>
+      </c>
+      <c r="N24" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -1629,6 +1715,9 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
+        <v>-0.034268</v>
+      </c>
+      <c r="N25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1676,6 +1765,9 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
+        <v>-1.73641</v>
+      </c>
+      <c r="N26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1723,6 +1815,9 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
+        <v>-0.131794</v>
+      </c>
+      <c r="N27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1778,6 +1873,9 @@
         <v>1.310000000000002</v>
       </c>
       <c r="M28" t="n">
+        <v>1.250235100000002</v>
+      </c>
+      <c r="N28" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -1825,6 +1923,9 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
+        <v>-0.267956</v>
+      </c>
+      <c r="N29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1872,6 +1973,9 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
+        <v>-0.0334152</v>
+      </c>
+      <c r="N30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1927,6 +2031,9 @@
         <v>2.339999999999975</v>
       </c>
       <c r="M31" t="n">
+        <v>2.296962199999975</v>
+      </c>
+      <c r="N31" t="n">
         <v>1.42</v>
       </c>
     </row>
@@ -1982,6 +2089,9 @@
         <v>0.8199999999999932</v>
       </c>
       <c r="M32" t="n">
+        <v>0.7770245999999932</v>
+      </c>
+      <c r="N32" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -2037,6 +2147,9 @@
         <v>0.03000000000000114</v>
       </c>
       <c r="M33" t="n">
+        <v>0.01689990000000114</v>
+      </c>
+      <c r="N33" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2092,6 +2205,9 @@
         <v>1.600000000000136</v>
       </c>
       <c r="M34" t="n">
+        <v>1.234804000000136</v>
+      </c>
+      <c r="N34" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -2139,6 +2255,9 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
+        <v>-0.0156988</v>
+      </c>
+      <c r="N35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2186,6 +2305,9 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
+        <v>-0.0253214</v>
+      </c>
+      <c r="N36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2241,6 +2363,9 @@
         <v>-0.01000000000000512</v>
       </c>
       <c r="M37" t="n">
+        <v>-0.02485250000000512</v>
+      </c>
+      <c r="N37" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -2296,6 +2421,9 @@
         <v>3.480000000000018</v>
       </c>
       <c r="M38" t="n">
+        <v>3.442445600000018</v>
+      </c>
+      <c r="N38" t="n">
         <v>2.44</v>
       </c>
     </row>
@@ -2351,6 +2479,9 @@
         <v>0.1140000000000008</v>
       </c>
       <c r="M39" t="n">
+        <v>0.1085865400000008</v>
+      </c>
+      <c r="N39" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -2406,6 +2537,9 @@
         <v>-3.350000000000023</v>
       </c>
       <c r="M40" t="n">
+        <v>-3.525649500000023</v>
+      </c>
+      <c r="N40" t="n">
         <v>-0.49</v>
       </c>
     </row>
@@ -2461,6 +2595,9 @@
         <v>0.001740000000000005</v>
       </c>
       <c r="M41" t="n">
+        <v>0.001714007800000005</v>
+      </c>
+      <c r="N41" t="n">
         <v>1.76</v>
       </c>
     </row>
@@ -2508,6 +2645,9 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
+        <v>-2.56464e-05</v>
+      </c>
+      <c r="N42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2555,6 +2695,9 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
+        <v>-0.000155454</v>
+      </c>
+      <c r="N43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2610,6 +2753,9 @@
         <v>17.75</v>
       </c>
       <c r="M44" t="n">
+        <v>16.9724635</v>
+      </c>
+      <c r="N44" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -2665,6 +2811,9 @@
         <v>-7.300000000000182</v>
       </c>
       <c r="M45" t="n">
+        <v>-8.074111000000181</v>
+      </c>
+      <c r="N45" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -2720,6 +2869,9 @@
         <v>6.149999999999636</v>
       </c>
       <c r="M46" t="n">
+        <v>5.379327499999636</v>
+      </c>
+      <c r="N46" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -2767,6 +2919,9 @@
         <v>0</v>
       </c>
       <c r="M47" t="n">
+        <v>-0.008951799999999999</v>
+      </c>
+      <c r="N47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2812,10 +2967,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2861,6 +3025,9 @@
         <v>0</v>
       </c>
       <c r="M49" t="n">
+        <v>-0.07213959999999998</v>
+      </c>
+      <c r="N49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2916,6 +3083,9 @@
         <v>0.3400000000000034</v>
       </c>
       <c r="M50" t="n">
+        <v>0.3066940000000034</v>
+      </c>
+      <c r="N50" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -2963,6 +3133,9 @@
         <v>0</v>
       </c>
       <c r="M51" t="n">
+        <v>-0.0331734</v>
+      </c>
+      <c r="N51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3018,6 +3191,9 @@
         <v>21</v>
       </c>
       <c r="M52" t="n">
+        <v>19.33184</v>
+      </c>
+      <c r="N52" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -3065,6 +3241,9 @@
         <v>0</v>
       </c>
       <c r="M53" t="n">
+        <v>-1.66634</v>
+      </c>
+      <c r="N53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3120,6 +3299,9 @@
         <v>0.9499999999999886</v>
       </c>
       <c r="M54" t="n">
+        <v>0.8209294999999887</v>
+      </c>
+      <c r="N54" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -3167,6 +3349,9 @@
         <v>0</v>
       </c>
       <c r="M55" t="n">
+        <v>-0.128362</v>
+      </c>
+      <c r="N55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3222,6 +3407,9 @@
         <v>0.4799999999999898</v>
       </c>
       <c r="M56" t="n">
+        <v>0.4217313999999898</v>
+      </c>
+      <c r="N56" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -3269,6 +3457,9 @@
         <v>0</v>
       </c>
       <c r="M57" t="n">
+        <v>-0.0581438</v>
+      </c>
+      <c r="N57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3324,6 +3515,9 @@
         <v>6</v>
       </c>
       <c r="M58" t="n">
+        <v>5.73922</v>
+      </c>
+      <c r="N58" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -3371,6 +3565,9 @@
         <v>0</v>
       </c>
       <c r="M59" t="n">
+        <v>-0.0031005</v>
+      </c>
+      <c r="N59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3426,6 +3623,9 @@
         <v>0.2400000000000091</v>
       </c>
       <c r="M60" t="n">
+        <v>0.1982128000000091</v>
+      </c>
+      <c r="N60" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -3481,6 +3681,9 @@
         <v>0.1099999999999994</v>
       </c>
       <c r="M61" t="n">
+        <v>0.09722879999999941</v>
+      </c>
+      <c r="N61" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -3528,6 +3731,9 @@
         <v>0</v>
       </c>
       <c r="M62" t="n">
+        <v>-0.0127179</v>
+      </c>
+      <c r="N62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3583,6 +3789,9 @@
         <v>0</v>
       </c>
       <c r="M63" t="n">
+        <v>-0.3590079999999999</v>
+      </c>
+      <c r="N63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3638,6 +3847,9 @@
         <v>0.6799999999999997</v>
       </c>
       <c r="M64" t="n">
+        <v>0.6646157999999996</v>
+      </c>
+      <c r="N64" t="n">
         <v>1.16</v>
       </c>
     </row>
@@ -3685,6 +3897,9 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
+        <v>-0.0145002</v>
+      </c>
+      <c r="N65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3732,6 +3947,9 @@
         <v>0</v>
       </c>
       <c r="M66" t="n">
+        <v>-0.0367484</v>
+      </c>
+      <c r="N66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3787,6 +4005,9 @@
         <v>-0.05600000000000094</v>
       </c>
       <c r="M67" t="n">
+        <v>-0.06118388000000094</v>
+      </c>
+      <c r="N67" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -3834,6 +4055,9 @@
         <v>0</v>
       </c>
       <c r="M68" t="n">
+        <v>-0.00514306</v>
+      </c>
+      <c r="N68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3889,6 +4113,9 @@
         <v>-0.0002000000000000057</v>
       </c>
       <c r="M69" t="n">
+        <v>-0.0002247676000000057</v>
+      </c>
+      <c r="N69" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -3936,6 +4163,9 @@
         <v>0</v>
       </c>
       <c r="M70" t="n">
+        <v>-0.0246844</v>
+      </c>
+      <c r="N70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3991,6 +4221,9 @@
         <v>8.699999999999818</v>
       </c>
       <c r="M71" t="n">
+        <v>7.946194999999818</v>
+      </c>
+      <c r="N71" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -4038,6 +4271,9 @@
         <v>0</v>
       </c>
       <c r="M72" t="n">
+        <v>-0.7524399999999999</v>
+      </c>
+      <c r="N72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4093,6 +4329,9 @@
         <v>0.02999999999999936</v>
       </c>
       <c r="M73" t="n">
+        <v>0.02690625999999936</v>
+      </c>
+      <c r="N73" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -4138,10 +4377,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4195,6 +4443,9 @@
         <v>0.6499999999999773</v>
       </c>
       <c r="M75" t="n">
+        <v>0.5774456999999773</v>
+      </c>
+      <c r="N75" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -4250,6 +4501,9 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="M76" t="n">
+        <v>-0.06341390000000113</v>
+      </c>
+      <c r="N76" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -4305,6 +4559,9 @@
         <v>7</v>
       </c>
       <c r="M77" t="n">
+        <v>5.328460000000001</v>
+      </c>
+      <c r="N77" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -4352,6 +4609,9 @@
         <v>0</v>
       </c>
       <c r="M78" t="n">
+        <v>-0.129051</v>
+      </c>
+      <c r="N78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4407,6 +4667,9 @@
         <v>1.189999999999998</v>
       </c>
       <c r="M79" t="n">
+        <v>1.131298499999998</v>
+      </c>
+      <c r="N79" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -4462,6 +4725,9 @@
         <v>1</v>
       </c>
       <c r="M80" t="n">
+        <v>0.738206</v>
+      </c>
+      <c r="N80" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -4517,6 +4783,9 @@
         <v>0.04299999999999926</v>
       </c>
       <c r="M81" t="n">
+        <v>0.03991860999999926</v>
+      </c>
+      <c r="N81" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -4564,6 +4833,9 @@
         <v>0</v>
       </c>
       <c r="M82" t="n">
+        <v>-0.003096859999999999</v>
+      </c>
+      <c r="N82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4619,6 +4891,9 @@
         <v>0.9399999999999977</v>
       </c>
       <c r="M83" t="n">
+        <v>0.9074921999999978</v>
+      </c>
+      <c r="N83" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -4674,6 +4949,9 @@
         <v>1.060000000000002</v>
       </c>
       <c r="M84" t="n">
+        <v>1.018595000000002</v>
+      </c>
+      <c r="N84" t="n">
         <v>0.67</v>
       </c>
     </row>
@@ -4729,6 +5007,9 @@
         <v>0.5200000000000031</v>
       </c>
       <c r="M85" t="n">
+        <v>0.5072977000000032</v>
+      </c>
+      <c r="N85" t="n">
         <v>1.07</v>
       </c>
     </row>
@@ -4784,6 +5065,9 @@
         <v>0.3349999999999937</v>
       </c>
       <c r="M86" t="n">
+        <v>0.3222762499999937</v>
+      </c>
+      <c r="N86" t="n">
         <v>0.6899999999999999</v>
       </c>
     </row>
@@ -4839,6 +5123,9 @@
         <v>-15.20000000000005</v>
       </c>
       <c r="M87" t="n">
+        <v>-15.55781200000005</v>
+      </c>
+      <c r="N87" t="n">
         <v>-1.1</v>
       </c>
     </row>
@@ -4894,6 +5181,9 @@
         <v>0.1499999999999986</v>
       </c>
       <c r="M88" t="n">
+        <v>0.1344870999999986</v>
+      </c>
+      <c r="N88" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -4941,6 +5231,9 @@
         <v>0</v>
       </c>
       <c r="M89" t="n">
+        <v>-0.0249912</v>
+      </c>
+      <c r="N89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4988,6 +5281,9 @@
         <v>0</v>
       </c>
       <c r="M90" t="n">
+        <v>-0.0145522</v>
+      </c>
+      <c r="N90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5043,6 +5339,9 @@
         <v>0.6799999999999784</v>
       </c>
       <c r="M91" t="n">
+        <v>0.6426535999999784</v>
+      </c>
+      <c r="N91" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -5098,6 +5397,9 @@
         <v>0.02199999999999847</v>
       </c>
       <c r="M92" t="n">
+        <v>0.01682053999999847</v>
+      </c>
+      <c r="N92" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -5153,6 +5455,9 @@
         <v>2.75</v>
       </c>
       <c r="M93" t="n">
+        <v>2.5763915</v>
+      </c>
+      <c r="N93" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -5200,6 +5505,9 @@
         <v>0</v>
       </c>
       <c r="M94" t="n">
+        <v>-0.03942379999999999</v>
+      </c>
+      <c r="N94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5255,6 +5563,9 @@
         <v>-0.0001000000000000029</v>
       </c>
       <c r="M95" t="n">
+        <v>-0.0001248326000000029</v>
+      </c>
+      <c r="N95" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -5310,6 +5621,9 @@
         <v>0.4499999999998181</v>
       </c>
       <c r="M96" t="n">
+        <v>-0.3054625000001818</v>
+      </c>
+      <c r="N96" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -5355,10 +5669,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5412,6 +5735,9 @@
         <v>0.5600000000000023</v>
       </c>
       <c r="M98" t="n">
+        <v>0.4873586000000023</v>
+      </c>
+      <c r="N98" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -5467,6 +5793,9 @@
         <v>-0.7299999999999898</v>
       </c>
       <c r="M99" t="n">
+        <v>-0.7633514999999899</v>
+      </c>
+      <c r="N99" t="n">
         <v>-0.5700000000000001</v>
       </c>
     </row>
@@ -5522,6 +5851,9 @@
         <v>26.5</v>
       </c>
       <c r="M100" t="n">
+        <v>24.830475</v>
+      </c>
+      <c r="N100" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -5577,6 +5909,9 @@
         <v>5.949999999999989</v>
       </c>
       <c r="M101" t="n">
+        <v>5.820825499999988</v>
+      </c>
+      <c r="N101" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -5632,6 +5967,9 @@
         <v>-0.7299999999999898</v>
       </c>
       <c r="M102" t="n">
+        <v>-0.7885116999999898</v>
+      </c>
+      <c r="N102" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -5687,6 +6025,9 @@
         <v>2.399999999999977</v>
       </c>
       <c r="M103" t="n">
+        <v>2.138647999999977</v>
+      </c>
+      <c r="N103" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -5742,6 +6083,9 @@
         <v>0.04400000000000048</v>
       </c>
       <c r="M104" t="n">
+        <v>0.04091172000000048</v>
+      </c>
+      <c r="N104" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -5789,6 +6133,9 @@
         <v>0</v>
       </c>
       <c r="M105" t="n">
+        <v>-0.003090359999999999</v>
+      </c>
+      <c r="N105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5844,6 +6191,9 @@
         <v>-1.159999999999997</v>
       </c>
       <c r="M106" t="n">
+        <v>-1.192281599999997</v>
+      </c>
+      <c r="N106" t="n">
         <v>-0.9299999999999999</v>
       </c>
     </row>
@@ -5899,6 +6249,9 @@
         <v>0</v>
       </c>
       <c r="M107" t="n">
+        <v>-0.041626</v>
+      </c>
+      <c r="N107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5954,6 +6307,9 @@
         <v>-0.2450000000000045</v>
       </c>
       <c r="M108" t="n">
+        <v>-0.2577341500000044</v>
+      </c>
+      <c r="N108" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -6009,6 +6365,9 @@
         <v>10.59999999999991</v>
       </c>
       <c r="M109" t="n">
+        <v>10.24418999999991</v>
+      </c>
+      <c r="N109" t="n">
         <v>0.7799999999999999</v>
       </c>
     </row>
@@ -6064,6 +6423,9 @@
         <v>0.5200000000000031</v>
       </c>
       <c r="M110" t="n">
+        <v>0.5043662000000031</v>
+      </c>
+      <c r="N110" t="n">
         <v>0.8699999999999999</v>
       </c>
     </row>
@@ -6119,6 +6481,9 @@
         <v>0.4499999999999886</v>
       </c>
       <c r="M111" t="n">
+        <v>0.4249502999999886</v>
+      </c>
+      <c r="N111" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -6174,6 +6539,9 @@
         <v>0.2600000000000051</v>
       </c>
       <c r="M112" t="n">
+        <v>0.2455882000000051</v>
+      </c>
+      <c r="N112" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -6229,6 +6597,9 @@
         <v>0</v>
       </c>
       <c r="M113" t="n">
+        <v>-0.03728919999999999</v>
+      </c>
+      <c r="N113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6284,6 +6655,9 @@
         <v>0.1140000000000008</v>
       </c>
       <c r="M114" t="n">
+        <v>0.1088553800000008</v>
+      </c>
+      <c r="N114" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -6339,6 +6713,9 @@
         <v>1.399999999999977</v>
       </c>
       <c r="M115" t="n">
+        <v>1.225981999999977</v>
+      </c>
+      <c r="N115" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -6394,6 +6771,9 @@
         <v>0.6899999999999977</v>
       </c>
       <c r="M116" t="n">
+        <v>0.6514328999999976</v>
+      </c>
+      <c r="N116" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -6449,6 +6829,9 @@
         <v>0.0007000000000000062</v>
       </c>
       <c r="M117" t="n">
+        <v>0.0006751674000000062</v>
+      </c>
+      <c r="N117" t="n">
         <v>0.74</v>
       </c>
     </row>
@@ -6504,6 +6887,9 @@
         <v>2.300000000000182</v>
       </c>
       <c r="M118" t="n">
+        <v>1.545831000000182</v>
+      </c>
+      <c r="N118" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -6518,7 +6904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6534,25 +6920,30 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>rq_sum</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>sum</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>count</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>part</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>total_percent</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>average_percent</t>
         </is>
@@ -6565,18 +6956,21 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>21.92538149999928</v>
+      </c>
+      <c r="C2" t="n">
         <v>28.04999999999927</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>3.506249999999909</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.97</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -6587,18 +6981,21 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0.660063399999993</v>
+      </c>
+      <c r="C3" t="n">
         <v>0.7499999999999929</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.1071428571428561</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>1.54</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -6609,239 +7006,272 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0.1625129599999991</v>
+      </c>
+      <c r="C4" t="n">
         <v>0.1939999999999991</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.03233333333333319</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.96</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54.5</v>
+        <v>0.06845588999999974</v>
       </c>
       <c r="C5" t="n">
+        <v>0.08699999999999974</v>
+      </c>
+      <c r="D5" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
-        <v>9.083333333333334</v>
-      </c>
       <c r="E5" t="n">
-        <v>0.8500000000000001</v>
+        <v>0.01449999999999996</v>
       </c>
       <c r="F5" t="n">
-        <v>0.14</v>
+        <v>0.73</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.899999999999977</v>
+        <v>0.001988100200000003</v>
       </c>
       <c r="C6" t="n">
+        <v>0.002140000000000003</v>
+      </c>
+      <c r="D6" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
-        <v>1.149999999999996</v>
-      </c>
       <c r="E6" t="n">
-        <v>1.39</v>
+        <v>0.0003566666666666671</v>
       </c>
       <c r="F6" t="n">
-        <v>0.23</v>
+        <v>2.19</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.45999999999998</v>
+        <v>-0.6220225999999875</v>
       </c>
       <c r="C7" t="n">
+        <v>-0.4199999999999875</v>
+      </c>
+      <c r="D7" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.74333333333333</v>
-      </c>
       <c r="E7" t="n">
-        <v>2.74</v>
+        <v>-0.06999999999999791</v>
       </c>
       <c r="F7" t="n">
-        <v>0.46</v>
+        <v>-0.3200000000000001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.25</v>
+        <v>44.335365</v>
       </c>
       <c r="C8" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="D8" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.375</v>
-      </c>
       <c r="E8" t="n">
-        <v>0.99</v>
+        <v>9.083333333333334</v>
       </c>
       <c r="F8" t="n">
-        <v>0.16</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.4199999999999875</v>
+        <v>1.8966353</v>
       </c>
       <c r="C9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D9" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
-        <v>-0.06999999999999791</v>
-      </c>
       <c r="E9" t="n">
-        <v>-0.3200000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.05</v>
+        <v>0.99</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.002140000000000003</v>
+        <v>6.119583999999977</v>
       </c>
       <c r="C10" t="n">
+        <v>6.899999999999977</v>
+      </c>
+      <c r="D10" t="n">
         <v>6</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.0003566666666666671</v>
-      </c>
       <c r="E10" t="n">
-        <v>2.19</v>
+        <v>1.149999999999996</v>
       </c>
       <c r="F10" t="n">
-        <v>0.36</v>
+        <v>1.39</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08699999999999974</v>
+        <v>4.20626339999998</v>
       </c>
       <c r="C11" t="n">
+        <v>4.45999999999998</v>
+      </c>
+      <c r="D11" t="n">
         <v>6</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.01449999999999996</v>
-      </c>
       <c r="E11" t="n">
-        <v>0.73</v>
+        <v>0.74333333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>0.12</v>
+        <v>2.74</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.350000000000001</v>
+        <v>8.079745999999977</v>
       </c>
       <c r="C12" t="n">
+        <v>9.399999999999977</v>
+      </c>
+      <c r="D12" t="n">
         <v>5</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.2700000000000003</v>
-      </c>
       <c r="E12" t="n">
-        <v>2.28</v>
+        <v>1.879999999999995</v>
       </c>
       <c r="F12" t="n">
-        <v>0.46</v>
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.399999999999977</v>
+        <v>3.973642399999997</v>
       </c>
       <c r="C13" t="n">
+        <v>4.159999999999997</v>
+      </c>
+      <c r="D13" t="n">
         <v>5</v>
       </c>
-      <c r="D13" t="n">
-        <v>1.879999999999995</v>
-      </c>
       <c r="E13" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.8319999999999993</v>
       </c>
       <c r="F13" t="n">
-        <v>0.19</v>
+        <v>2.91</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.000000000000004</v>
+        <v>0.1766137</v>
       </c>
       <c r="C14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D14" t="n">
         <v>5</v>
       </c>
-      <c r="D14" t="n">
-        <v>-0.6000000000000008</v>
-      </c>
       <c r="E14" t="n">
-        <v>-0.21</v>
+        <v>0.05</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.04</v>
+        <v>0.45</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="15">
@@ -6851,214 +7281,248 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>0.6733011999999636</v>
+      </c>
+      <c r="C15" t="n">
         <v>1.039999999999964</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>5</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.2079999999999927</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.37</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>moex</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
         <v>5</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.05</v>
-      </c>
       <c r="E16" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09</v>
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.159999999999997</v>
+        <v>1.271988300000001</v>
       </c>
       <c r="C17" t="n">
+        <v>1.350000000000001</v>
+      </c>
+      <c r="D17" t="n">
         <v>5</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.8319999999999993</v>
-      </c>
       <c r="E17" t="n">
-        <v>2.91</v>
+        <v>0.2700000000000003</v>
       </c>
       <c r="F17" t="n">
-        <v>0.58</v>
+        <v>2.28</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.2199999999999993</v>
+        <v>-4.805050000000003</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>-3.000000000000004</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.05499999999999983</v>
+        <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.1799999999999999</v>
+        <v>-0.6000000000000008</v>
       </c>
       <c r="F18" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="G18" t="n">
         <v>-0.04</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7999999999999539</v>
+        <v>-0.3517029999999992</v>
       </c>
       <c r="C19" t="n">
+        <v>-0.2199999999999993</v>
+      </c>
+      <c r="D19" t="n">
         <v>4</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.1999999999999885</v>
-      </c>
       <c r="E19" t="n">
-        <v>0.13</v>
+        <v>-0.05499999999999983</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03</v>
+        <v>-0.1799999999999999</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>HYDR</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.1000409999999539</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>0.7999999999999539</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.1999999999999885</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.13</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>RUAL</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4499999999999886</v>
+        <v>0.008955859999999365</v>
       </c>
       <c r="C21" t="n">
+        <v>0.02999999999999936</v>
+      </c>
+      <c r="D21" t="n">
         <v>3</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.1499999999999962</v>
-      </c>
       <c r="E21" t="n">
-        <v>0.47</v>
+        <v>0.009999999999999787</v>
       </c>
       <c r="F21" t="n">
-        <v>0.16</v>
+        <v>0.25</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>RUAL</t>
+          <t>HYDR</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02999999999999936</v>
+        <v>-0.024996582</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
         <v>3</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.009999999999999787</v>
-      </c>
       <c r="E22" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08</v>
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>MTLR</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6899999999999977</v>
+        <v>0.3746376999999886</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>0.4499999999999886</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3449999999999989</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
+        <v>0.1499999999999962</v>
+      </c>
+      <c r="F23" t="n">
         <v>0.47</v>
       </c>
-      <c r="F23" t="n">
-        <v>0.24</v>
+      <c r="G23" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>moex</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.6120090999999976</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>0.6899999999999977</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
       <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="inlineStr"/>
+        <v>0.3449999999999989</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/total_res/Collector1_output.xlsx
+++ b/total_res/Collector1_output.xlsx
@@ -6904,7 +6904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6948,6 +6948,11 @@
           <t>average_percent</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>files</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -6973,6 +6978,9 @@
       <c r="G2" t="n">
         <v>0.12</v>
       </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -6998,6 +7006,9 @@
       <c r="G3" t="n">
         <v>0.22</v>
       </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -7023,6 +7034,9 @@
       <c r="G4" t="n">
         <v>0.16</v>
       </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -7048,6 +7062,9 @@
       <c r="G5" t="n">
         <v>0.12</v>
       </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -7073,6 +7090,9 @@
       <c r="G6" t="n">
         <v>0.36</v>
       </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -7098,6 +7118,9 @@
       <c r="G7" t="n">
         <v>-0.05</v>
       </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -7123,6 +7146,9 @@
       <c r="G8" t="n">
         <v>0.14</v>
       </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -7148,6 +7174,9 @@
       <c r="G9" t="n">
         <v>0.16</v>
       </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -7173,6 +7202,9 @@
       <c r="G10" t="n">
         <v>0.23</v>
       </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -7198,6 +7230,9 @@
       <c r="G11" t="n">
         <v>0.46</v>
       </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -7223,6 +7258,9 @@
       <c r="G12" t="n">
         <v>0.19</v>
       </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -7248,6 +7286,9 @@
       <c r="G13" t="n">
         <v>0.58</v>
       </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -7273,6 +7314,9 @@
       <c r="G14" t="n">
         <v>0.09</v>
       </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -7298,6 +7342,9 @@
       <c r="G15" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -7323,6 +7370,9 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -7348,6 +7398,9 @@
       <c r="G17" t="n">
         <v>0.46</v>
       </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -7373,6 +7426,9 @@
       <c r="G18" t="n">
         <v>-0.04</v>
       </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -7398,6 +7454,9 @@
       <c r="G19" t="n">
         <v>-0.04</v>
       </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -7423,6 +7482,9 @@
       <c r="G20" t="n">
         <v>0.03</v>
       </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -7448,6 +7510,9 @@
       <c r="G21" t="n">
         <v>0.08</v>
       </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -7473,6 +7538,9 @@
       <c r="G22" t="n">
         <v>0</v>
       </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -7498,6 +7566,9 @@
       <c r="G23" t="n">
         <v>0.16</v>
       </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -7522,6 +7593,9 @@
       </c>
       <c r="G24" t="n">
         <v>0.24</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
